--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,7 +416,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents|0.2.0</t>
   </si>
   <si>
     <t>Extension.extension:supportingEvidence</t>
@@ -437,7 +437,7 @@
     <t>Extension.extension:supportingEvidence.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-marker|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-genomic-variant|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-mutational-burden|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-microsatellite-instability|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-loss-of-heterozygosity|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-homologous-recombination-deficiency|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-neoantigen-burden|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-aneuploid-score|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-marker|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-genomic-variant|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-mutational-burden|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-microsatellite-instability|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-loss-of-heterozygosity|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-homologous-recombination-deficiency|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-neoantigen-burden|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-aneuploid-score|0.2.0)
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>Extension.extension:expectedEffect.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-expected-drug-effects|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-expected-drug-effects|0.2.0</t>
   </si>
   <si>
     <t>Extension.extension:offLabelUse</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -416,7 +416,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents</t>
   </si>
   <si>
     <t>Extension.extension:supportingEvidence</t>
@@ -437,7 +437,7 @@
     <t>Extension.extension:supportingEvidence.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-marker|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-genomic-variant|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-mutational-burden|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-microsatellite-instability|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-loss-of-heterozygosity|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-homologous-recombination-deficiency|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-neoantigen-burden|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-aneuploid-score|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-marker|http://onconova.github.io/fhir/StructureDefinition/onconova-genomic-variant|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-mutational-burden|http://onconova.github.io/fhir/StructureDefinition/onconova-microsatellite-instability|http://onconova.github.io/fhir/StructureDefinition/onconova-loss-of-heterozygosity|http://onconova.github.io/fhir/StructureDefinition/onconova-homologous-recombination-deficiency|http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-neoantigen-burden|http://onconova.github.io/fhir/StructureDefinition/onconova-aneuploid-score)
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>Extension.extension:expectedEffect.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-expected-drug-effects|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-expected-drug-effects</t>
   </si>
   <si>
     <t>Extension.extension:offLabelUse</t>
@@ -865,7 +865,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.48828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.9609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
+++ b/StructureDefinition-onconova-ext-molecular-tumor-board-therapeutic-recommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
